--- a/docs/test cases.xlsx
+++ b/docs/test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\Capstone\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51352A9E-4A9A-4AD7-9319-1C7C5EFD9A67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECEA975-35C5-4C2C-9AE6-CE954555C00F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9EF6EDFE-D146-4D41-A030-623E9741AA60}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="106">
   <si>
     <t>Test Case #</t>
   </si>
@@ -327,10 +327,43 @@
     <t>The access token shall expire after 15 minutes</t>
   </si>
   <si>
-    <t>Get request to any resource after token expiration</t>
-  </si>
-  <si>
     <t>Message stating the token expired</t>
+  </si>
+  <si>
+    <t>8.3.0</t>
+  </si>
+  <si>
+    <t>The user shall be informed of missing or invalid access token when making a request to Weather Resource</t>
+  </si>
+  <si>
+    <t>The user shall be informed of missing or invalid access token when making a request to WeatherFiveDay Resource</t>
+  </si>
+  <si>
+    <t>The user shall be informed of missing or invalid access token when making a request to Restaurant Resource</t>
+  </si>
+  <si>
+    <t>The user shall be informed of missing or invalid access token when making a request to Event Resource</t>
+  </si>
+  <si>
+    <t>The user shall be informed of missing or invalid access token when making a request to Hotel Resource</t>
+  </si>
+  <si>
+    <t>Message indicating invalid access token</t>
+  </si>
+  <si>
+    <t>The Hotel Info Resource should inform the user if no information was found</t>
+  </si>
+  <si>
+    <t>Message stating no information was found</t>
+  </si>
+  <si>
+    <t>Get request to Hotel Info Resource with invalid ID input</t>
+  </si>
+  <si>
+    <t>Get request to Hotel Info Resource with missing ID input</t>
+  </si>
+  <si>
+    <t>Get request to Hotel Info Resource with XID input</t>
   </si>
 </sst>
 </file>
@@ -697,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2315801-7B73-4346-BEF2-26596C679638}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,21 +1292,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>82</v>
+      <c r="B33" t="s">
+        <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1281,16 +1314,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1298,33 +1331,33 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>90</v>
+      <c r="B36" t="s">
+        <v>71</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1332,33 +1365,424 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="1" t="s">
+    </row>
+    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>94</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/docs/test cases.xlsx
+++ b/docs/test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\Capstone\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECEA975-35C5-4C2C-9AE6-CE954555C00F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F24ACE3-A62D-4355-860D-FD5BDA50E536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9EF6EDFE-D146-4D41-A030-623E9741AA60}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="108">
   <si>
     <t>Test Case #</t>
   </si>
@@ -266,9 +266,6 @@
   </si>
   <si>
     <t>Message stating 'username' was created</t>
-  </si>
-  <si>
-    <t>Post request to User Registration with invalid inputs</t>
   </si>
   <si>
     <t>Error message</t>
@@ -364,6 +361,15 @@
   </si>
   <si>
     <t>Get request to Hotel Info Resource with XID input</t>
+  </si>
+  <si>
+    <t>Post request to User Registration without any inputs</t>
+  </si>
+  <si>
+    <t>Post request to User Registration without username and with password</t>
+  </si>
+  <si>
+    <t>Post request to User Registration without password and with username</t>
   </si>
 </sst>
 </file>
@@ -730,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2315801-7B73-4346-BEF2-26596C679638}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,13 +1306,13 @@
         <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1317,13 +1323,13 @@
         <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1331,7 +1337,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>72</v>
@@ -1351,47 +1357,47 @@
         <v>71</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>81</v>
+      <c r="B37" t="s">
+        <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>90</v>
+      <c r="B38" t="s">
+        <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1399,33 +1405,33 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1433,16 +1439,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1450,33 +1456,33 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1484,16 +1490,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1501,33 +1507,33 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1535,33 +1541,33 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1569,16 +1575,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1586,50 +1592,50 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1637,16 +1643,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1654,16 +1660,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1671,16 +1677,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1688,16 +1694,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1705,16 +1711,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1722,16 +1728,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="D58" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1739,16 +1745,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1756,16 +1762,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1773,16 +1779,50 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>100</v>
+    </row>
+    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/docs/test cases.xlsx
+++ b/docs/test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\Capstone\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F24ACE3-A62D-4355-860D-FD5BDA50E536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590EE55F-5038-4E43-A015-1915170C969E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9EF6EDFE-D146-4D41-A030-623E9741AA60}"/>
+    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="15840" xr2:uid="{9EF6EDFE-D146-4D41-A030-623E9741AA60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="178">
   <si>
     <t>Test Case #</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>The Restaurant Resource shall take user zip code input and return restaurant information if location was found</t>
-  </si>
-  <si>
-    <t>The Event Resource shall take user zip code input and return restaurant information if location was found</t>
   </si>
   <si>
     <t>The Hotel Resource shall take user zip code input and return restaurant information if location was found</t>
@@ -232,12 +229,6 @@
     <t>4.1.0</t>
   </si>
   <si>
-    <t>The Event Resource should return information for each event including the name, address, type, price, and date</t>
-  </si>
-  <si>
-    <t>Name, address, type, price, and date for each event</t>
-  </si>
-  <si>
     <t>5.1.0</t>
   </si>
   <si>
@@ -245,15 +236,6 @@
   </si>
   <si>
     <t>Name, rating, and ID for each hotel</t>
-  </si>
-  <si>
-    <t>Get request to Hotel Info Resource with ID input</t>
-  </si>
-  <si>
-    <t>The Hotel Info Resource should return the address, phone, price, and amenities for the given hotel ID</t>
-  </si>
-  <si>
-    <t>Address, phone, price, and amenities for the hotel</t>
   </si>
   <si>
     <t>6.0.0</t>
@@ -298,16 +280,10 @@
     <t>Post request to User Login with valid username and password</t>
   </si>
   <si>
-    <t>Access token created</t>
-  </si>
-  <si>
     <t>7.1.0</t>
   </si>
   <si>
     <t>The user shall be informed if credentials to login are invalid</t>
-  </si>
-  <si>
-    <t>Post request to User Login with invalid username and password</t>
   </si>
   <si>
     <t>Message stating credentials are invalid</t>
@@ -330,9 +306,6 @@
     <t>8.3.0</t>
   </si>
   <si>
-    <t>The user shall be informed of missing or invalid access token when making a request to Weather Resource</t>
-  </si>
-  <si>
     <t>The user shall be informed of missing or invalid access token when making a request to WeatherFiveDay Resource</t>
   </si>
   <si>
@@ -354,12 +327,6 @@
     <t>Message stating no information was found</t>
   </si>
   <si>
-    <t>Get request to Hotel Info Resource with invalid ID input</t>
-  </si>
-  <si>
-    <t>Get request to Hotel Info Resource with missing ID input</t>
-  </si>
-  <si>
     <t>Get request to Hotel Info Resource with XID input</t>
   </si>
   <si>
@@ -370,6 +337,249 @@
   </si>
   <si>
     <t>Post request to User Registration without password and with username</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Post request to User Registration with empty input strings</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Message indicating the fields cannot be blank</t>
+  </si>
+  <si>
+    <t>Message indicating the password field cannot be blank</t>
+  </si>
+  <si>
+    <t>Message indicating the username field cannot be blank</t>
+  </si>
+  <si>
+    <t>Post request to User Login with invalid username</t>
+  </si>
+  <si>
+    <t>Post request to User Login with invalid password</t>
+  </si>
+  <si>
+    <t>Message "logged in as " with username</t>
+  </si>
+  <si>
+    <t>Message stating "user doesn't exist"</t>
+  </si>
+  <si>
+    <t>Get request to Weather Resource with empty zipcode string</t>
+  </si>
+  <si>
+    <t>Get request to Weather Resource with invalid zipcode (4 digits)</t>
+  </si>
+  <si>
+    <t>Get request to Weather Resource with invalid zipcode (6 digits)</t>
+  </si>
+  <si>
+    <t>Get request to Weather Resource with invalid US zipcode (00000)</t>
+  </si>
+  <si>
+    <t>The user shall be informed of missing  access token when making a request to Weather Resource</t>
+  </si>
+  <si>
+    <t>The user shall be informed of  invalid access token when making a request to Weather Resource</t>
+  </si>
+  <si>
+    <t>Get request to Weather Resource with zipcode input and no access token</t>
+  </si>
+  <si>
+    <t>Get request to Weather Resource with zipcode input and invalid access token</t>
+  </si>
+  <si>
+    <t>Internal server error</t>
+  </si>
+  <si>
+    <t>Message indicating missing access token</t>
+  </si>
+  <si>
+    <t>Get request to WeatherFiveDay Resource with empty zipcode</t>
+  </si>
+  <si>
+    <t>Get request to WeatherFiveDay Resource with invalid zipcode (4 digits)</t>
+  </si>
+  <si>
+    <t>Get request to WeatherFiveDay Resource with invalid zipcode (6 digits)</t>
+  </si>
+  <si>
+    <t>Get request to WeatherFiveDay Resource with invalid US zipcode (00000)</t>
+  </si>
+  <si>
+    <t>The user shall be informed of missing access token when making a request to WeatherFiveDay Resource</t>
+  </si>
+  <si>
+    <t>The user shall be informed of invalid access token when making a request to WeatherFiveDay Resource</t>
+  </si>
+  <si>
+    <t>Get request to WeatherFiveDay Resource with zipcode input and no access token</t>
+  </si>
+  <si>
+    <t>Get request to WeatherFiveDay Resource with zipcode input and invalid access token</t>
+  </si>
+  <si>
+    <t>Get request to Restaurant Resource with empty zipcode string</t>
+  </si>
+  <si>
+    <t>Get request to Restaurant Resource with invalid zipcode (4 digits)</t>
+  </si>
+  <si>
+    <t>Get request to Restaurant Resource with invalid zipcode (6 digits)</t>
+  </si>
+  <si>
+    <t>Get request to Restaurant Resource with invalid US zipcode (00000)</t>
+  </si>
+  <si>
+    <t>Refresh token shall create a new access token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post request to token refresh with refresh token </t>
+  </si>
+  <si>
+    <t>New access token</t>
+  </si>
+  <si>
+    <t>Created empty user</t>
+  </si>
+  <si>
+    <t>The user shall be informed of missing access token when making a request to Restaurant Resource</t>
+  </si>
+  <si>
+    <t>The user shall be informed of  invalid access token when making a request to Restaurant Resource</t>
+  </si>
+  <si>
+    <t>Get request to Restaurant Resource with zipcode input without access token</t>
+  </si>
+  <si>
+    <t>Get request to Restaurant Resource with zipcode input with invalid access token</t>
+  </si>
+  <si>
+    <t>The Event Resource shall take user zip code input and return event information if location was found</t>
+  </si>
+  <si>
+    <t>Get request to Event Resource with empty zipcode string</t>
+  </si>
+  <si>
+    <t>Get request to Event Resource with invalid zipcode (4 digits)</t>
+  </si>
+  <si>
+    <t>Get request to Event Resource with invalid zipcode (6 digits)</t>
+  </si>
+  <si>
+    <t>Get request to Event Resource with US invalid zipcode (00000)</t>
+  </si>
+  <si>
+    <t>List of events</t>
+  </si>
+  <si>
+    <t>Get request to Event Resource with invalid zipcode (alpha characters)</t>
+  </si>
+  <si>
+    <t>Get request to WeatherFiveDay Resource with invalid  zipcode (alpha characters)</t>
+  </si>
+  <si>
+    <t>Get request to Restaurant Resource with invalid zipcode (alpha characters)</t>
+  </si>
+  <si>
+    <t>Get request to Weather Resource with invalid zipcode (alpha characters)</t>
+  </si>
+  <si>
+    <t>The Event Resource should return information for each event including the name, address, type, and date</t>
+  </si>
+  <si>
+    <t>Name, address, type, and date for each event</t>
+  </si>
+  <si>
+    <t>Name, address, type,  and date for each event</t>
+  </si>
+  <si>
+    <t>Weather information for the current day for the user's location based on zipcode</t>
+  </si>
+  <si>
+    <t>Five day forecast for the user's location based on zipcode</t>
+  </si>
+  <si>
+    <t>List of restaurants for the user's location based on zipcode</t>
+  </si>
+  <si>
+    <t>List of events for the user's location based on zip code</t>
+  </si>
+  <si>
+    <t>List of hotels for the user's location based on zip code</t>
+  </si>
+  <si>
+    <t>Get request to Hotel Resource with empty zipcode string</t>
+  </si>
+  <si>
+    <t>Get request to Hotel Resource with invalid zipcode input (4 digits)</t>
+  </si>
+  <si>
+    <t>Get request to Hotel Resource with invalid zipcode input (6 digits)</t>
+  </si>
+  <si>
+    <t>Get request to Hotel Resource with invalid US zipcode (00000)</t>
+  </si>
+  <si>
+    <t>Get request to Hotel Resource with invalid zipcode input (alpha characters)</t>
+  </si>
+  <si>
+    <t>The Hotel Info Resource should return the address for the given hotel ID</t>
+  </si>
+  <si>
+    <t>Address for the hotel</t>
+  </si>
+  <si>
+    <t>Get request to Hotel Info Resource with empty XID string</t>
+  </si>
+  <si>
+    <t>Get request to Hotel Info Resource with invalid XID input</t>
+  </si>
+  <si>
+    <t>Get request to Hotel Info Resource with missing XID input</t>
+  </si>
+  <si>
+    <t>Message stating the field cannot be blank</t>
+  </si>
+  <si>
+    <t>Browser did not understand</t>
+  </si>
+  <si>
+    <t>The user shall be informed of missing access token when making a request to Event Resource</t>
+  </si>
+  <si>
+    <t>Get request to Event Resource with zipcode input without access token</t>
+  </si>
+  <si>
+    <t>The user shall be informed of invalid access token when making a request to Event Resource</t>
+  </si>
+  <si>
+    <t>Get request to Event Resource with zipcode input with invalid access token</t>
+  </si>
+  <si>
+    <t>The user shall be informed of missing  access token when making a request to Hotel Resource</t>
+  </si>
+  <si>
+    <t>The user shall be informed of invalid access token when making a request to Hotel Resource</t>
+  </si>
+  <si>
+    <t>Get request to Hotel Info Resource with XID input without access token</t>
+  </si>
+  <si>
+    <t>Get request to Hotel Info Resource with XID input with invalid access token</t>
+  </si>
+  <si>
+    <t>The user shall be informed of missing access token when making a request to Hotel Resource</t>
+  </si>
+  <si>
+    <t>Get request to Hotel Resource with zipcode input with invalid access token</t>
+  </si>
+  <si>
+    <t>Get request to Hotel Resource with zipcode input with missing access token</t>
   </si>
 </sst>
 </file>
@@ -385,15 +595,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -401,11 +617,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -421,6 +646,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2315801-7B73-4346-BEF2-26596C679638}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,6 +1001,8 @@
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -776,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -793,10 +1047,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -810,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -827,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
@@ -844,7 +1098,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -873,7 +1127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -928,34 +1182,38 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>150</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -963,16 +1221,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>151</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -980,16 +1241,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>152</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -997,16 +1261,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>153</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1014,19 +1281,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1034,16 +1304,19 @@
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F17" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1051,16 +1324,19 @@
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F18" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1068,16 +1344,19 @@
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F19" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1085,16 +1364,19 @@
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F20" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1102,727 +1384,1542 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F21" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>90</v>
+      <c r="B42" t="s">
+        <v>54</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>90</v>
+      <c r="B43" t="s">
+        <v>54</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>90</v>
+      <c r="B44" t="s">
+        <v>54</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>90</v>
+      <c r="B45" t="s">
+        <v>54</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>90</v>
+      <c r="B46" t="s">
+        <v>58</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>90</v>
+      <c r="B47" t="s">
+        <v>58</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>90</v>
+      <c r="B48" t="s">
+        <v>61</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>90</v>
+      <c r="B49" t="s">
+        <v>61</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>90</v>
+      <c r="B50" t="s">
+        <v>62</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>90</v>
+      <c r="B51" t="s">
+        <v>62</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>90</v>
+      <c r="B52" t="s">
+        <v>62</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>93</v>
+      <c r="B53" t="s">
+        <v>62</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>93</v>
+      <c r="B54" t="s">
+        <v>62</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E57" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>93</v>
+      <c r="B58" t="s">
+        <v>65</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E58" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>93</v>
+      <c r="B59" t="s">
+        <v>65</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>93</v>
+      <c r="B60" t="s">
+        <v>65</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>99</v>
+      <c r="E75" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>86</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>87</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>88</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <v>89</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>91</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>93</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
